--- a/Code/Results/Cases/Case_3_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017066465841714</v>
+        <v>1.039402199679229</v>
       </c>
       <c r="D2">
-        <v>1.037177895791666</v>
+        <v>1.048932527732853</v>
       </c>
       <c r="E2">
-        <v>1.030997264321471</v>
+        <v>1.0482127093648</v>
       </c>
       <c r="F2">
-        <v>1.041417979041309</v>
+        <v>1.059753573177616</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05490404882778</v>
+        <v>1.043445844378464</v>
       </c>
       <c r="J2">
-        <v>1.038748434435718</v>
+        <v>1.044494410417391</v>
       </c>
       <c r="K2">
-        <v>1.048142486973796</v>
+        <v>1.051690994312071</v>
       </c>
       <c r="L2">
-        <v>1.042041009862956</v>
+        <v>1.050973183424949</v>
       </c>
       <c r="M2">
-        <v>1.052328946044776</v>
+        <v>1.062482217206266</v>
       </c>
       <c r="N2">
-        <v>1.016731718696693</v>
+        <v>1.018758214742993</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020848764140491</v>
+        <v>1.040206742504947</v>
       </c>
       <c r="D3">
-        <v>1.040131246953658</v>
+        <v>1.049583733476009</v>
       </c>
       <c r="E3">
-        <v>1.034134679687508</v>
+        <v>1.048929942165498</v>
       </c>
       <c r="F3">
-        <v>1.044913841688456</v>
+        <v>1.06055624966144</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05614309774244</v>
+        <v>1.043651859734275</v>
       </c>
       <c r="J3">
-        <v>1.040786767824896</v>
+        <v>1.044944869597427</v>
       </c>
       <c r="K3">
-        <v>1.050275153386845</v>
+        <v>1.052154760891009</v>
       </c>
       <c r="L3">
-        <v>1.04434866380426</v>
+        <v>1.051502661677676</v>
       </c>
       <c r="M3">
-        <v>1.055002569156571</v>
+        <v>1.063099214376889</v>
       </c>
       <c r="N3">
-        <v>1.017413439839977</v>
+        <v>1.018908282805671</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023252306216936</v>
+        <v>1.040727960047371</v>
       </c>
       <c r="D4">
-        <v>1.042010267104787</v>
+        <v>1.05000560981265</v>
       </c>
       <c r="E4">
-        <v>1.036133874301852</v>
+        <v>1.049394983898513</v>
       </c>
       <c r="F4">
-        <v>1.047140977218483</v>
+        <v>1.061076677073986</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056920652828934</v>
+        <v>1.043784115444525</v>
       </c>
       <c r="J4">
-        <v>1.042079354607625</v>
+        <v>1.04523628502582</v>
       </c>
       <c r="K4">
-        <v>1.051626785336099</v>
+        <v>1.052454664208267</v>
       </c>
       <c r="L4">
-        <v>1.045814910451796</v>
+        <v>1.05184553943157</v>
       </c>
       <c r="M4">
-        <v>1.056701890492158</v>
+        <v>1.063498836828653</v>
       </c>
       <c r="N4">
-        <v>1.01784569670538</v>
+        <v>1.019005342429523</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024252564374659</v>
+        <v>1.04094722761568</v>
       </c>
       <c r="D5">
-        <v>1.042792743833448</v>
+        <v>1.050183085051479</v>
       </c>
       <c r="E5">
-        <v>1.036967138573536</v>
+        <v>1.049590711517203</v>
       </c>
       <c r="F5">
-        <v>1.048069140855134</v>
+        <v>1.061295712128273</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057241848845053</v>
+        <v>1.043839463496786</v>
       </c>
       <c r="J5">
-        <v>1.042616600639775</v>
+        <v>1.045358779953443</v>
       </c>
       <c r="K5">
-        <v>1.052188380751512</v>
+        <v>1.052580697906797</v>
       </c>
       <c r="L5">
-        <v>1.046425028166613</v>
+        <v>1.051989748338518</v>
       </c>
       <c r="M5">
-        <v>1.057409124036215</v>
+        <v>1.063666928302666</v>
       </c>
       <c r="N5">
-        <v>1.018025344750455</v>
+        <v>1.019046135177377</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024419923260048</v>
+        <v>1.040984052214867</v>
       </c>
       <c r="D6">
-        <v>1.042923693033814</v>
+        <v>1.050212890813895</v>
       </c>
       <c r="E6">
-        <v>1.037106631105016</v>
+        <v>1.049623588128476</v>
       </c>
       <c r="F6">
-        <v>1.048224513905272</v>
+        <v>1.061332503522502</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057295448443012</v>
+        <v>1.043848741860892</v>
       </c>
       <c r="J6">
-        <v>1.042706449814597</v>
+        <v>1.04537934640699</v>
       </c>
       <c r="K6">
-        <v>1.052282290668418</v>
+        <v>1.052601856800018</v>
       </c>
       <c r="L6">
-        <v>1.046527105213005</v>
+        <v>1.052013965304496</v>
       </c>
       <c r="M6">
-        <v>1.057527457011745</v>
+        <v>1.063695156839241</v>
       </c>
       <c r="N6">
-        <v>1.018055388285644</v>
+        <v>1.01905298379339</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023265711358305</v>
+        <v>1.040730889333192</v>
       </c>
       <c r="D7">
-        <v>1.042020751667448</v>
+        <v>1.05000798078255</v>
       </c>
       <c r="E7">
-        <v>1.036145036431945</v>
+        <v>1.049397598342539</v>
       </c>
       <c r="F7">
-        <v>1.047153411001747</v>
+        <v>1.061079602861747</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056924966881665</v>
+        <v>1.043784856000165</v>
       </c>
       <c r="J7">
-        <v>1.042086557313656</v>
+        <v>1.045237921874039</v>
       </c>
       <c r="K7">
-        <v>1.051634315253461</v>
+        <v>1.052456348457927</v>
       </c>
       <c r="L7">
-        <v>1.0458230873889</v>
+        <v>1.051847466112016</v>
       </c>
       <c r="M7">
-        <v>1.056711368477335</v>
+        <v>1.063501082522937</v>
       </c>
       <c r="N7">
-        <v>1.017848105252243</v>
+        <v>1.019005887548502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018353982309931</v>
+        <v>1.039673968295996</v>
       </c>
       <c r="D8">
-        <v>1.038182740319345</v>
+        <v>1.049152500529865</v>
       </c>
       <c r="E8">
-        <v>1.032064097864206</v>
+        <v>1.04845490487891</v>
       </c>
       <c r="F8">
-        <v>1.04260679801669</v>
+        <v>1.060024624427265</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055327864205046</v>
+        <v>1.043515685115172</v>
       </c>
       <c r="J8">
-        <v>1.0394428479136</v>
+        <v>1.04464665720075</v>
       </c>
       <c r="K8">
-        <v>1.048869196379036</v>
+        <v>1.051847763767161</v>
       </c>
       <c r="L8">
-        <v>1.042826574061011</v>
+        <v>1.051152066277406</v>
       </c>
       <c r="M8">
-        <v>1.053238979076111</v>
+        <v>1.06269065372753</v>
       </c>
       <c r="N8">
-        <v>1.016963974652682</v>
+        <v>1.01880893986377</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009348464911238</v>
+        <v>1.037816401328918</v>
       </c>
       <c r="D9">
-        <v>1.031165405568001</v>
+        <v>1.047648969530024</v>
       </c>
       <c r="E9">
-        <v>1.024626474508512</v>
+        <v>1.046801076143669</v>
       </c>
       <c r="F9">
-        <v>1.034316554324167</v>
+        <v>1.058173691364575</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052323397930562</v>
+        <v>1.043033368641917</v>
       </c>
       <c r="J9">
-        <v>1.034575369442652</v>
+        <v>1.043604358819591</v>
       </c>
       <c r="K9">
-        <v>1.043772301541516</v>
+        <v>1.05077400933384</v>
       </c>
       <c r="L9">
-        <v>1.037332251637408</v>
+        <v>1.049928817371241</v>
       </c>
       <c r="M9">
-        <v>1.046876366594523</v>
+        <v>1.061265592789425</v>
       </c>
       <c r="N9">
-        <v>1.015335847071985</v>
+        <v>1.018461573553314</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00308783970502</v>
+        <v>1.036581400423749</v>
       </c>
       <c r="D10">
-        <v>1.026302715578057</v>
+        <v>1.046649375164247</v>
       </c>
       <c r="E10">
-        <v>1.01948819616567</v>
+        <v>1.045703560506613</v>
       </c>
       <c r="F10">
-        <v>1.028586239273643</v>
+        <v>1.056945289736331</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05018537684085</v>
+        <v>1.042706495876434</v>
       </c>
       <c r="J10">
-        <v>1.031179479325133</v>
+        <v>1.04290929377669</v>
       </c>
       <c r="K10">
-        <v>1.040212768959264</v>
+        <v>1.050057351343763</v>
       </c>
       <c r="L10">
-        <v>1.033514279847528</v>
+        <v>1.049114843924346</v>
       </c>
       <c r="M10">
-        <v>1.042457854664562</v>
+        <v>1.060317685349159</v>
       </c>
       <c r="N10">
-        <v>1.0141998633</v>
+        <v>1.018229809782619</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000310898334179</v>
+        <v>1.036047455068022</v>
       </c>
       <c r="D11">
-        <v>1.024150162792389</v>
+        <v>1.046217218502966</v>
       </c>
       <c r="E11">
-        <v>1.017217256725108</v>
+        <v>1.045229543551416</v>
       </c>
       <c r="F11">
-        <v>1.026052845405806</v>
+        <v>1.056414722094148</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04922584801678</v>
+        <v>1.042563703549412</v>
       </c>
       <c r="J11">
-        <v>1.029670749289289</v>
+        <v>1.042608292365149</v>
       </c>
       <c r="K11">
-        <v>1.038630574265073</v>
+        <v>1.049746853852976</v>
       </c>
       <c r="L11">
-        <v>1.031821624505136</v>
+        <v>1.048762765530204</v>
       </c>
       <c r="M11">
-        <v>1.04049961785397</v>
+        <v>1.059907758913256</v>
       </c>
       <c r="N11">
-        <v>1.013695171927689</v>
+        <v>1.018129415355205</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9992690350824474</v>
+        <v>1.035849248739988</v>
       </c>
       <c r="D12">
-        <v>1.023343261879202</v>
+        <v>1.046056799545436</v>
       </c>
       <c r="E12">
-        <v>1.016366510706038</v>
+        <v>1.045053657037831</v>
       </c>
       <c r="F12">
-        <v>1.025103651316422</v>
+        <v>1.056217848882676</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048864210115866</v>
+        <v>1.042510476556397</v>
       </c>
       <c r="J12">
-        <v>1.029104362906112</v>
+        <v>1.042496483330341</v>
       </c>
       <c r="K12">
-        <v>1.03803650216491</v>
+        <v>1.049631495708061</v>
       </c>
       <c r="L12">
-        <v>1.031186730830284</v>
+        <v>1.048632046204037</v>
       </c>
       <c r="M12">
-        <v>1.039765206571131</v>
+        <v>1.059755574450345</v>
       </c>
       <c r="N12">
-        <v>1.013505710661022</v>
+        <v>1.018092118992852</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9994929958503692</v>
+        <v>1.035891758995568</v>
       </c>
       <c r="D13">
-        <v>1.023516682149445</v>
+        <v>1.046091205251791</v>
       </c>
       <c r="E13">
-        <v>1.016549330279825</v>
+        <v>1.045091376911202</v>
       </c>
       <c r="F13">
-        <v>1.025307632556811</v>
+        <v>1.056260069623407</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048942021760358</v>
+        <v>1.042521902400749</v>
       </c>
       <c r="J13">
-        <v>1.029226128919964</v>
+        <v>1.042520466894021</v>
       </c>
       <c r="K13">
-        <v>1.038164224954891</v>
+        <v>1.049656241554445</v>
       </c>
       <c r="L13">
-        <v>1.031323200698834</v>
+        <v>1.048660083281662</v>
       </c>
       <c r="M13">
-        <v>1.039923063218907</v>
+        <v>1.059788214864343</v>
       </c>
       <c r="N13">
-        <v>1.013546442304382</v>
+        <v>1.018100119425848</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000224992169887</v>
+        <v>1.036031068715656</v>
       </c>
       <c r="D14">
-        <v>1.024083615715217</v>
+        <v>1.046203956103912</v>
       </c>
       <c r="E14">
-        <v>1.017147082844225</v>
+        <v>1.045215000942167</v>
       </c>
       <c r="F14">
-        <v>1.025974553643244</v>
+        <v>1.056398444334673</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04919606245663</v>
+        <v>1.042559307610774</v>
       </c>
       <c r="J14">
-        <v>1.029624054883621</v>
+        <v>1.042599050263307</v>
       </c>
       <c r="K14">
-        <v>1.038581599497793</v>
+        <v>1.049737318825492</v>
       </c>
       <c r="L14">
-        <v>1.031769271213568</v>
+        <v>1.048751959032343</v>
       </c>
       <c r="M14">
-        <v>1.04043905634421</v>
+        <v>1.059895177646273</v>
       </c>
       <c r="N14">
-        <v>1.013679552162728</v>
+        <v>1.018126332533652</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000674609120058</v>
+        <v>1.036116918617428</v>
       </c>
       <c r="D15">
-        <v>1.024431939733843</v>
+        <v>1.046273439367859</v>
       </c>
       <c r="E15">
-        <v>1.017514412155472</v>
+        <v>1.045291194294596</v>
       </c>
       <c r="F15">
-        <v>1.026384371272991</v>
+        <v>1.056483728556308</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049351888000656</v>
+        <v>1.042582329367185</v>
       </c>
       <c r="J15">
-        <v>1.029868431279146</v>
+        <v>1.042647467619626</v>
       </c>
       <c r="K15">
-        <v>1.038837905923516</v>
+        <v>1.049787269866109</v>
       </c>
       <c r="L15">
-        <v>1.032043285526587</v>
+        <v>1.048808574481837</v>
       </c>
       <c r="M15">
-        <v>1.040756036050245</v>
+        <v>1.059961091662395</v>
       </c>
       <c r="N15">
-        <v>1.013761298744437</v>
+        <v>1.018142482593205</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003270705869671</v>
+        <v>1.036616854012718</v>
       </c>
       <c r="D16">
-        <v>1.026444559341998</v>
+        <v>1.046678070352841</v>
       </c>
       <c r="E16">
-        <v>1.019637915675291</v>
+        <v>1.045735045212248</v>
       </c>
       <c r="F16">
-        <v>1.028753244779922</v>
+        <v>1.056980530145645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050248333436632</v>
+        <v>1.042715946181596</v>
       </c>
       <c r="J16">
-        <v>1.031278783208506</v>
+        <v>1.042929269654989</v>
       </c>
       <c r="K16">
-        <v>1.040316893021665</v>
+        <v>1.050077954375751</v>
       </c>
       <c r="L16">
-        <v>1.033625764534757</v>
+        <v>1.049138218293539</v>
       </c>
       <c r="M16">
-        <v>1.042586845294596</v>
+        <v>1.060344902003348</v>
       </c>
       <c r="N16">
-        <v>1.014233082129219</v>
+        <v>1.018236471845965</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004881168602034</v>
+        <v>1.036930670619393</v>
       </c>
       <c r="D17">
-        <v>1.027694246215306</v>
+        <v>1.046932066594221</v>
       </c>
       <c r="E17">
-        <v>1.020957401097849</v>
+        <v>1.046013787761949</v>
       </c>
       <c r="F17">
-        <v>1.030224980836977</v>
+        <v>1.057292520501867</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050801506734522</v>
+        <v>1.04279942529396</v>
       </c>
       <c r="J17">
-        <v>1.03215305442021</v>
+        <v>1.043106028566923</v>
       </c>
       <c r="K17">
-        <v>1.041233515227859</v>
+        <v>1.050260245974569</v>
       </c>
       <c r="L17">
-        <v>1.034607685388381</v>
+        <v>1.049345097306817</v>
       </c>
       <c r="M17">
-        <v>1.043723028156694</v>
+        <v>1.060585797568305</v>
       </c>
       <c r="N17">
-        <v>1.01452554146286</v>
+        <v>1.018295418672736</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005814183910784</v>
+        <v>1.037113793357118</v>
       </c>
       <c r="D18">
-        <v>1.028418655274434</v>
+        <v>1.047080283232796</v>
       </c>
       <c r="E18">
-        <v>1.021722614549424</v>
+        <v>1.046176490627478</v>
       </c>
       <c r="F18">
-        <v>1.031078414213685</v>
+        <v>1.057474628186692</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051120917767968</v>
+        <v>1.042847996171034</v>
       </c>
       <c r="J18">
-        <v>1.032659323682931</v>
+        <v>1.043209125711497</v>
       </c>
       <c r="K18">
-        <v>1.04176423605362</v>
+        <v>1.050366556128487</v>
       </c>
       <c r="L18">
-        <v>1.035176633861093</v>
+        <v>1.049465802652361</v>
       </c>
       <c r="M18">
-        <v>1.044381422694724</v>
+        <v>1.060726358289756</v>
       </c>
       <c r="N18">
-        <v>1.014694897885733</v>
+        <v>1.01832979754617</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006131256138521</v>
+        <v>1.037176246792094</v>
       </c>
       <c r="D19">
-        <v>1.028664903236464</v>
+        <v>1.047130832229483</v>
       </c>
       <c r="E19">
-        <v>1.021982791757615</v>
+        <v>1.046231987892733</v>
       </c>
       <c r="F19">
-        <v>1.031368574173862</v>
+        <v>1.057536744014089</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051229282742953</v>
+        <v>1.042864537021637</v>
       </c>
       <c r="J19">
-        <v>1.032831331125477</v>
+        <v>1.043244278566262</v>
       </c>
       <c r="K19">
-        <v>1.041944538445022</v>
+        <v>1.050402802138889</v>
       </c>
       <c r="L19">
-        <v>1.035369994905238</v>
+        <v>1.049506966168627</v>
       </c>
       <c r="M19">
-        <v>1.044605193300356</v>
+        <v>1.06077429436024</v>
       </c>
       <c r="N19">
-        <v>1.01475243754112</v>
+        <v>1.018341519192006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004709040249214</v>
+        <v>1.036896992901478</v>
       </c>
       <c r="D20">
-        <v>1.027560635395863</v>
+        <v>1.046904808471323</v>
       </c>
       <c r="E20">
-        <v>1.020816292122324</v>
+        <v>1.045983869202559</v>
       </c>
       <c r="F20">
-        <v>1.030067597663279</v>
+        <v>1.05725903353183</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050742493277213</v>
+        <v>1.042790481292483</v>
       </c>
       <c r="J20">
-        <v>1.032059635445772</v>
+        <v>1.043087064344062</v>
       </c>
       <c r="K20">
-        <v>1.041135578403712</v>
+        <v>1.050240689605707</v>
       </c>
       <c r="L20">
-        <v>1.034502728212887</v>
+        <v>1.049322897378909</v>
       </c>
       <c r="M20">
-        <v>1.043601575445472</v>
+        <v>1.06055994652659</v>
       </c>
       <c r="N20">
-        <v>1.014494291099441</v>
+        <v>1.018289094627019</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000009727966655</v>
+        <v>1.035990042016867</v>
       </c>
       <c r="D21">
-        <v>1.023916873125539</v>
+        <v>1.046170750921745</v>
       </c>
       <c r="E21">
-        <v>1.016971261374946</v>
+        <v>1.04517859163732</v>
       </c>
       <c r="F21">
-        <v>1.025778390661499</v>
+        <v>1.056357690803509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049121399363308</v>
+        <v>1.042548297879409</v>
       </c>
       <c r="J21">
-        <v>1.029507042463664</v>
+        <v>1.042575909511236</v>
       </c>
       <c r="K21">
-        <v>1.038458870983755</v>
+        <v>1.049713444283535</v>
       </c>
       <c r="L21">
-        <v>1.031638086769259</v>
+        <v>1.048724902292822</v>
       </c>
       <c r="M21">
-        <v>1.040287305716006</v>
+        <v>1.059863677537383</v>
       </c>
       <c r="N21">
-        <v>1.013640410344405</v>
+        <v>1.018118613571975</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9969947600772719</v>
+        <v>1.035420528675928</v>
       </c>
       <c r="D22">
-        <v>1.021583233040124</v>
+        <v>1.045709818253339</v>
       </c>
       <c r="E22">
-        <v>1.014511815082587</v>
+        <v>1.044673350063754</v>
       </c>
       <c r="F22">
-        <v>1.023034090297627</v>
+        <v>1.055792157774753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048071832849703</v>
+        <v>1.042394942795963</v>
       </c>
       <c r="J22">
-        <v>1.027867425096209</v>
+        <v>1.04225450539122</v>
       </c>
       <c r="K22">
-        <v>1.03673891395591</v>
+        <v>1.049381797113909</v>
       </c>
       <c r="L22">
-        <v>1.029801169464948</v>
+        <v>1.048349256923242</v>
       </c>
       <c r="M22">
-        <v>1.038162643305941</v>
+        <v>1.059426372028915</v>
       </c>
       <c r="N22">
-        <v>1.013091951815482</v>
+        <v>1.018011394352046</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9985989303206142</v>
+        <v>1.035722369361239</v>
       </c>
       <c r="D23">
-        <v>1.02282448443623</v>
+        <v>1.045954110001404</v>
       </c>
       <c r="E23">
-        <v>1.015819693160492</v>
+        <v>1.04494108623781</v>
       </c>
       <c r="F23">
-        <v>1.024493519624383</v>
+        <v>1.056091845254702</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048631156139356</v>
+        <v>1.042476341757827</v>
       </c>
       <c r="J23">
-        <v>1.028739984853711</v>
+        <v>1.042424889316767</v>
       </c>
       <c r="K23">
-        <v>1.037654283771762</v>
+        <v>1.049557623007565</v>
       </c>
       <c r="L23">
-        <v>1.03077843127565</v>
+        <v>1.048548361096021</v>
       </c>
       <c r="M23">
-        <v>1.039292935045393</v>
+        <v>1.059658151145574</v>
       </c>
       <c r="N23">
-        <v>1.013383824073058</v>
+        <v>1.018068236067112</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004786837203239</v>
+        <v>1.036912210169252</v>
       </c>
       <c r="D24">
-        <v>1.027621022297416</v>
+        <v>1.046917125043389</v>
       </c>
       <c r="E24">
-        <v>1.020880066832411</v>
+        <v>1.045997387750313</v>
       </c>
       <c r="F24">
-        <v>1.030138727788536</v>
+        <v>1.057274164453891</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050769168937057</v>
+        <v>1.042794523075975</v>
       </c>
       <c r="J24">
-        <v>1.032101858810323</v>
+        <v>1.043095633470554</v>
       </c>
       <c r="K24">
-        <v>1.041179843965503</v>
+        <v>1.050249526341112</v>
       </c>
       <c r="L24">
-        <v>1.034550165535897</v>
+        <v>1.049332928458734</v>
       </c>
       <c r="M24">
-        <v>1.043656468033628</v>
+        <v>1.060571627344056</v>
       </c>
       <c r="N24">
-        <v>1.014508415589888</v>
+        <v>1.018291952202908</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011720261016375</v>
+        <v>1.038296039561447</v>
       </c>
       <c r="D25">
-        <v>1.033011035682263</v>
+        <v>1.048037190286374</v>
       </c>
       <c r="E25">
-        <v>1.026579900319755</v>
+        <v>1.047227751284656</v>
       </c>
       <c r="F25">
-        <v>1.036494407677579</v>
+        <v>1.058651232218391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053123376172528</v>
+        <v>1.04315900202086</v>
       </c>
       <c r="J25">
-        <v>1.035859528496225</v>
+        <v>1.043873858888208</v>
       </c>
       <c r="K25">
-        <v>1.045117633712266</v>
+        <v>1.051051751735924</v>
       </c>
       <c r="L25">
-        <v>1.038779148376818</v>
+        <v>1.050244794236454</v>
       </c>
       <c r="M25">
-        <v>1.048551429590922</v>
+        <v>1.061633636818104</v>
       </c>
       <c r="N25">
-        <v>1.015765410552488</v>
+        <v>1.018551410977593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_250/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_250/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039402199679229</v>
+        <v>1.017066465841713</v>
       </c>
       <c r="D2">
-        <v>1.048932527732853</v>
+        <v>1.037177895791665</v>
       </c>
       <c r="E2">
-        <v>1.0482127093648</v>
+        <v>1.03099726432147</v>
       </c>
       <c r="F2">
-        <v>1.059753573177616</v>
+        <v>1.041417979041308</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043445844378464</v>
+        <v>1.054904048827779</v>
       </c>
       <c r="J2">
-        <v>1.044494410417391</v>
+        <v>1.038748434435718</v>
       </c>
       <c r="K2">
-        <v>1.051690994312071</v>
+        <v>1.048142486973795</v>
       </c>
       <c r="L2">
-        <v>1.050973183424949</v>
+        <v>1.042041009862956</v>
       </c>
       <c r="M2">
-        <v>1.062482217206266</v>
+        <v>1.052328946044775</v>
       </c>
       <c r="N2">
-        <v>1.018758214742993</v>
+        <v>1.016731718696692</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040206742504947</v>
+        <v>1.020848764140491</v>
       </c>
       <c r="D3">
-        <v>1.049583733476009</v>
+        <v>1.040131246953657</v>
       </c>
       <c r="E3">
-        <v>1.048929942165498</v>
+        <v>1.034134679687508</v>
       </c>
       <c r="F3">
-        <v>1.06055624966144</v>
+        <v>1.044913841688455</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043651859734275</v>
+        <v>1.056143097742439</v>
       </c>
       <c r="J3">
-        <v>1.044944869597427</v>
+        <v>1.040786767824896</v>
       </c>
       <c r="K3">
-        <v>1.052154760891009</v>
+        <v>1.050275153386844</v>
       </c>
       <c r="L3">
-        <v>1.051502661677676</v>
+        <v>1.044348663804259</v>
       </c>
       <c r="M3">
-        <v>1.063099214376889</v>
+        <v>1.05500256915657</v>
       </c>
       <c r="N3">
-        <v>1.018908282805671</v>
+        <v>1.017413439839977</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040727960047371</v>
+        <v>1.023252306216936</v>
       </c>
       <c r="D4">
-        <v>1.05000560981265</v>
+        <v>1.042010267104787</v>
       </c>
       <c r="E4">
-        <v>1.049394983898513</v>
+        <v>1.036133874301852</v>
       </c>
       <c r="F4">
-        <v>1.061076677073986</v>
+        <v>1.047140977218483</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043784115444525</v>
+        <v>1.056920652828933</v>
       </c>
       <c r="J4">
-        <v>1.04523628502582</v>
+        <v>1.042079354607625</v>
       </c>
       <c r="K4">
-        <v>1.052454664208267</v>
+        <v>1.051626785336098</v>
       </c>
       <c r="L4">
-        <v>1.05184553943157</v>
+        <v>1.045814910451796</v>
       </c>
       <c r="M4">
-        <v>1.063498836828653</v>
+        <v>1.056701890492157</v>
       </c>
       <c r="N4">
-        <v>1.019005342429523</v>
+        <v>1.01784569670538</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04094722761568</v>
+        <v>1.024252564374659</v>
       </c>
       <c r="D5">
-        <v>1.050183085051479</v>
+        <v>1.042792743833448</v>
       </c>
       <c r="E5">
-        <v>1.049590711517203</v>
+        <v>1.036967138573536</v>
       </c>
       <c r="F5">
-        <v>1.061295712128273</v>
+        <v>1.048069140855134</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043839463496786</v>
+        <v>1.057241848845053</v>
       </c>
       <c r="J5">
-        <v>1.045358779953443</v>
+        <v>1.042616600639774</v>
       </c>
       <c r="K5">
-        <v>1.052580697906797</v>
+        <v>1.052188380751512</v>
       </c>
       <c r="L5">
-        <v>1.051989748338518</v>
+        <v>1.046425028166613</v>
       </c>
       <c r="M5">
-        <v>1.063666928302666</v>
+        <v>1.057409124036214</v>
       </c>
       <c r="N5">
-        <v>1.019046135177377</v>
+        <v>1.018025344750455</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040984052214867</v>
+        <v>1.024419923260049</v>
       </c>
       <c r="D6">
-        <v>1.050212890813895</v>
+        <v>1.042923693033814</v>
       </c>
       <c r="E6">
-        <v>1.049623588128476</v>
+        <v>1.037106631105016</v>
       </c>
       <c r="F6">
-        <v>1.061332503522502</v>
+        <v>1.048224513905272</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043848741860892</v>
+        <v>1.057295448443012</v>
       </c>
       <c r="J6">
-        <v>1.04537934640699</v>
+        <v>1.042706449814598</v>
       </c>
       <c r="K6">
-        <v>1.052601856800018</v>
+        <v>1.052282290668418</v>
       </c>
       <c r="L6">
-        <v>1.052013965304496</v>
+        <v>1.046527105213005</v>
       </c>
       <c r="M6">
-        <v>1.063695156839241</v>
+        <v>1.057527457011745</v>
       </c>
       <c r="N6">
-        <v>1.01905298379339</v>
+        <v>1.018055388285644</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040730889333192</v>
+        <v>1.023265711358304</v>
       </c>
       <c r="D7">
-        <v>1.05000798078255</v>
+        <v>1.042020751667448</v>
       </c>
       <c r="E7">
-        <v>1.049397598342539</v>
+        <v>1.036145036431945</v>
       </c>
       <c r="F7">
-        <v>1.061079602861747</v>
+        <v>1.047153411001746</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043784856000165</v>
+        <v>1.056924966881665</v>
       </c>
       <c r="J7">
-        <v>1.045237921874039</v>
+        <v>1.042086557313655</v>
       </c>
       <c r="K7">
-        <v>1.052456348457927</v>
+        <v>1.051634315253461</v>
       </c>
       <c r="L7">
-        <v>1.051847466112016</v>
+        <v>1.0458230873889</v>
       </c>
       <c r="M7">
-        <v>1.063501082522937</v>
+        <v>1.056711368477335</v>
       </c>
       <c r="N7">
-        <v>1.019005887548502</v>
+        <v>1.017848105252243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039673968295996</v>
+        <v>1.018353982309931</v>
       </c>
       <c r="D8">
-        <v>1.049152500529865</v>
+        <v>1.038182740319345</v>
       </c>
       <c r="E8">
-        <v>1.04845490487891</v>
+        <v>1.032064097864206</v>
       </c>
       <c r="F8">
-        <v>1.060024624427265</v>
+        <v>1.04260679801669</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043515685115172</v>
+        <v>1.055327864205047</v>
       </c>
       <c r="J8">
-        <v>1.04464665720075</v>
+        <v>1.039442847913601</v>
       </c>
       <c r="K8">
-        <v>1.051847763767161</v>
+        <v>1.048869196379037</v>
       </c>
       <c r="L8">
-        <v>1.051152066277406</v>
+        <v>1.042826574061011</v>
       </c>
       <c r="M8">
-        <v>1.06269065372753</v>
+        <v>1.053238979076111</v>
       </c>
       <c r="N8">
-        <v>1.01880893986377</v>
+        <v>1.016963974652683</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037816401328918</v>
+        <v>1.009348464911238</v>
       </c>
       <c r="D9">
-        <v>1.047648969530024</v>
+        <v>1.031165405568002</v>
       </c>
       <c r="E9">
-        <v>1.046801076143669</v>
+        <v>1.024626474508512</v>
       </c>
       <c r="F9">
-        <v>1.058173691364575</v>
+        <v>1.034316554324167</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043033368641917</v>
+        <v>1.052323397930562</v>
       </c>
       <c r="J9">
-        <v>1.043604358819591</v>
+        <v>1.034575369442652</v>
       </c>
       <c r="K9">
-        <v>1.05077400933384</v>
+        <v>1.043772301541516</v>
       </c>
       <c r="L9">
-        <v>1.049928817371241</v>
+        <v>1.037332251637408</v>
       </c>
       <c r="M9">
-        <v>1.061265592789425</v>
+        <v>1.046876366594523</v>
       </c>
       <c r="N9">
-        <v>1.018461573553314</v>
+        <v>1.015335847071985</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036581400423749</v>
+        <v>1.003087839705019</v>
       </c>
       <c r="D10">
-        <v>1.046649375164247</v>
+        <v>1.026302715578055</v>
       </c>
       <c r="E10">
-        <v>1.045703560506613</v>
+        <v>1.019488196165668</v>
       </c>
       <c r="F10">
-        <v>1.056945289736331</v>
+        <v>1.028586239273641</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042706495876434</v>
+        <v>1.050185376840849</v>
       </c>
       <c r="J10">
-        <v>1.04290929377669</v>
+        <v>1.031179479325132</v>
       </c>
       <c r="K10">
-        <v>1.050057351343763</v>
+        <v>1.040212768959263</v>
       </c>
       <c r="L10">
-        <v>1.049114843924346</v>
+        <v>1.033514279847527</v>
       </c>
       <c r="M10">
-        <v>1.060317685349159</v>
+        <v>1.04245785466456</v>
       </c>
       <c r="N10">
-        <v>1.018229809782619</v>
+        <v>1.0141998633</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036047455068022</v>
+        <v>1.000310898334178</v>
       </c>
       <c r="D11">
-        <v>1.046217218502966</v>
+        <v>1.024150162792388</v>
       </c>
       <c r="E11">
-        <v>1.045229543551416</v>
+        <v>1.017217256725107</v>
       </c>
       <c r="F11">
-        <v>1.056414722094148</v>
+        <v>1.026052845405806</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042563703549412</v>
+        <v>1.049225848016779</v>
       </c>
       <c r="J11">
-        <v>1.042608292365149</v>
+        <v>1.029670749289288</v>
       </c>
       <c r="K11">
-        <v>1.049746853852976</v>
+        <v>1.038630574265071</v>
       </c>
       <c r="L11">
-        <v>1.048762765530204</v>
+        <v>1.031821624505135</v>
       </c>
       <c r="M11">
-        <v>1.059907758913256</v>
+        <v>1.040499617853969</v>
       </c>
       <c r="N11">
-        <v>1.018129415355205</v>
+        <v>1.013695171927689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035849248739988</v>
+        <v>0.9992690350824471</v>
       </c>
       <c r="D12">
-        <v>1.046056799545436</v>
+        <v>1.023343261879202</v>
       </c>
       <c r="E12">
-        <v>1.045053657037831</v>
+        <v>1.016366510706038</v>
       </c>
       <c r="F12">
-        <v>1.056217848882676</v>
+        <v>1.025103651316422</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042510476556397</v>
+        <v>1.048864210115866</v>
       </c>
       <c r="J12">
-        <v>1.042496483330341</v>
+        <v>1.029104362906112</v>
       </c>
       <c r="K12">
-        <v>1.049631495708061</v>
+        <v>1.03803650216491</v>
       </c>
       <c r="L12">
-        <v>1.048632046204037</v>
+        <v>1.031186730830283</v>
       </c>
       <c r="M12">
-        <v>1.059755574450345</v>
+        <v>1.039765206571131</v>
       </c>
       <c r="N12">
-        <v>1.018092118992852</v>
+        <v>1.013505710661022</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035891758995568</v>
+        <v>0.9994929958503694</v>
       </c>
       <c r="D13">
-        <v>1.046091205251791</v>
+        <v>1.023516682149445</v>
       </c>
       <c r="E13">
-        <v>1.045091376911202</v>
+        <v>1.016549330279825</v>
       </c>
       <c r="F13">
-        <v>1.056260069623407</v>
+        <v>1.025307632556811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042521902400749</v>
+        <v>1.048942021760358</v>
       </c>
       <c r="J13">
-        <v>1.042520466894021</v>
+        <v>1.029226128919964</v>
       </c>
       <c r="K13">
-        <v>1.049656241554445</v>
+        <v>1.038164224954891</v>
       </c>
       <c r="L13">
-        <v>1.048660083281662</v>
+        <v>1.031323200698834</v>
       </c>
       <c r="M13">
-        <v>1.059788214864343</v>
+        <v>1.039923063218907</v>
       </c>
       <c r="N13">
-        <v>1.018100119425848</v>
+        <v>1.013546442304382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036031068715656</v>
+        <v>1.000224992169886</v>
       </c>
       <c r="D14">
-        <v>1.046203956103912</v>
+        <v>1.024083615715216</v>
       </c>
       <c r="E14">
-        <v>1.045215000942167</v>
+        <v>1.017147082844224</v>
       </c>
       <c r="F14">
-        <v>1.056398444334673</v>
+        <v>1.025974553643243</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042559307610774</v>
+        <v>1.049196062456629</v>
       </c>
       <c r="J14">
-        <v>1.042599050263307</v>
+        <v>1.02962405488362</v>
       </c>
       <c r="K14">
-        <v>1.049737318825492</v>
+        <v>1.038581599497793</v>
       </c>
       <c r="L14">
-        <v>1.048751959032343</v>
+        <v>1.031769271213567</v>
       </c>
       <c r="M14">
-        <v>1.059895177646273</v>
+        <v>1.040439056344209</v>
       </c>
       <c r="N14">
-        <v>1.018126332533652</v>
+        <v>1.013679552162727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036116918617428</v>
+        <v>1.000674609120058</v>
       </c>
       <c r="D15">
-        <v>1.046273439367859</v>
+        <v>1.024431939733843</v>
       </c>
       <c r="E15">
-        <v>1.045291194294596</v>
+        <v>1.017514412155471</v>
       </c>
       <c r="F15">
-        <v>1.056483728556308</v>
+        <v>1.026384371272991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042582329367185</v>
+        <v>1.049351888000655</v>
       </c>
       <c r="J15">
-        <v>1.042647467619626</v>
+        <v>1.029868431279146</v>
       </c>
       <c r="K15">
-        <v>1.049787269866109</v>
+        <v>1.038837905923516</v>
       </c>
       <c r="L15">
-        <v>1.048808574481837</v>
+        <v>1.032043285526587</v>
       </c>
       <c r="M15">
-        <v>1.059961091662395</v>
+        <v>1.040756036050244</v>
       </c>
       <c r="N15">
-        <v>1.018142482593205</v>
+        <v>1.013761298744437</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036616854012718</v>
+        <v>1.003270705869672</v>
       </c>
       <c r="D16">
-        <v>1.046678070352841</v>
+        <v>1.026444559341999</v>
       </c>
       <c r="E16">
-        <v>1.045735045212248</v>
+        <v>1.019637915675292</v>
       </c>
       <c r="F16">
-        <v>1.056980530145645</v>
+        <v>1.028753244779923</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042715946181596</v>
+        <v>1.050248333436633</v>
       </c>
       <c r="J16">
-        <v>1.042929269654989</v>
+        <v>1.031278783208507</v>
       </c>
       <c r="K16">
-        <v>1.050077954375751</v>
+        <v>1.040316893021666</v>
       </c>
       <c r="L16">
-        <v>1.049138218293539</v>
+        <v>1.033625764534758</v>
       </c>
       <c r="M16">
-        <v>1.060344902003348</v>
+        <v>1.042586845294597</v>
       </c>
       <c r="N16">
-        <v>1.018236471845965</v>
+        <v>1.01423308212922</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036930670619393</v>
+        <v>1.004881168602033</v>
       </c>
       <c r="D17">
-        <v>1.046932066594221</v>
+        <v>1.027694246215305</v>
       </c>
       <c r="E17">
-        <v>1.046013787761949</v>
+        <v>1.020957401097848</v>
       </c>
       <c r="F17">
-        <v>1.057292520501867</v>
+        <v>1.030224980836977</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04279942529396</v>
+        <v>1.050801506734521</v>
       </c>
       <c r="J17">
-        <v>1.043106028566923</v>
+        <v>1.032153054420209</v>
       </c>
       <c r="K17">
-        <v>1.050260245974569</v>
+        <v>1.041233515227858</v>
       </c>
       <c r="L17">
-        <v>1.049345097306817</v>
+        <v>1.03460768538838</v>
       </c>
       <c r="M17">
-        <v>1.060585797568305</v>
+        <v>1.043723028156694</v>
       </c>
       <c r="N17">
-        <v>1.018295418672736</v>
+        <v>1.01452554146286</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037113793357118</v>
+        <v>1.005814183910784</v>
       </c>
       <c r="D18">
-        <v>1.047080283232796</v>
+        <v>1.028418655274433</v>
       </c>
       <c r="E18">
-        <v>1.046176490627478</v>
+        <v>1.021722614549423</v>
       </c>
       <c r="F18">
-        <v>1.057474628186692</v>
+        <v>1.031078414213684</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042847996171034</v>
+        <v>1.051120917767968</v>
       </c>
       <c r="J18">
-        <v>1.043209125711497</v>
+        <v>1.032659323682931</v>
       </c>
       <c r="K18">
-        <v>1.050366556128487</v>
+        <v>1.041764236053619</v>
       </c>
       <c r="L18">
-        <v>1.049465802652361</v>
+        <v>1.035176633861092</v>
       </c>
       <c r="M18">
-        <v>1.060726358289756</v>
+        <v>1.044381422694724</v>
       </c>
       <c r="N18">
-        <v>1.01832979754617</v>
+        <v>1.014694897885733</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037176246792094</v>
+        <v>1.006131256138521</v>
       </c>
       <c r="D19">
-        <v>1.047130832229483</v>
+        <v>1.028664903236464</v>
       </c>
       <c r="E19">
-        <v>1.046231987892733</v>
+        <v>1.021982791757615</v>
       </c>
       <c r="F19">
-        <v>1.057536744014089</v>
+        <v>1.031368574173862</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042864537021637</v>
+        <v>1.051229282742952</v>
       </c>
       <c r="J19">
-        <v>1.043244278566262</v>
+        <v>1.032831331125476</v>
       </c>
       <c r="K19">
-        <v>1.050402802138889</v>
+        <v>1.041944538445022</v>
       </c>
       <c r="L19">
-        <v>1.049506966168627</v>
+        <v>1.035369994905238</v>
       </c>
       <c r="M19">
-        <v>1.06077429436024</v>
+        <v>1.044605193300356</v>
       </c>
       <c r="N19">
-        <v>1.018341519192006</v>
+        <v>1.01475243754112</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036896992901478</v>
+        <v>1.004709040249213</v>
       </c>
       <c r="D20">
-        <v>1.046904808471323</v>
+        <v>1.027560635395862</v>
       </c>
       <c r="E20">
-        <v>1.045983869202559</v>
+        <v>1.020816292122323</v>
       </c>
       <c r="F20">
-        <v>1.05725903353183</v>
+        <v>1.030067597663278</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042790481292483</v>
+        <v>1.050742493277213</v>
       </c>
       <c r="J20">
-        <v>1.043087064344062</v>
+        <v>1.032059635445771</v>
       </c>
       <c r="K20">
-        <v>1.050240689605707</v>
+        <v>1.041135578403711</v>
       </c>
       <c r="L20">
-        <v>1.049322897378909</v>
+        <v>1.034502728212886</v>
       </c>
       <c r="M20">
-        <v>1.06055994652659</v>
+        <v>1.043601575445471</v>
       </c>
       <c r="N20">
-        <v>1.018289094627019</v>
+        <v>1.014494291099441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035990042016867</v>
+        <v>1.000009727966656</v>
       </c>
       <c r="D21">
-        <v>1.046170750921745</v>
+        <v>1.02391687312554</v>
       </c>
       <c r="E21">
-        <v>1.04517859163732</v>
+        <v>1.016971261374946</v>
       </c>
       <c r="F21">
-        <v>1.056357690803509</v>
+        <v>1.0257783906615</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042548297879409</v>
+        <v>1.049121399363308</v>
       </c>
       <c r="J21">
-        <v>1.042575909511236</v>
+        <v>1.029507042463665</v>
       </c>
       <c r="K21">
-        <v>1.049713444283535</v>
+        <v>1.038458870983755</v>
       </c>
       <c r="L21">
-        <v>1.048724902292822</v>
+        <v>1.03163808676926</v>
       </c>
       <c r="M21">
-        <v>1.059863677537383</v>
+        <v>1.040287305716007</v>
       </c>
       <c r="N21">
-        <v>1.018118613571975</v>
+        <v>1.013640410344405</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035420528675928</v>
+        <v>0.9969947600772712</v>
       </c>
       <c r="D22">
-        <v>1.045709818253339</v>
+        <v>1.021583233040123</v>
       </c>
       <c r="E22">
-        <v>1.044673350063754</v>
+        <v>1.014511815082586</v>
       </c>
       <c r="F22">
-        <v>1.055792157774753</v>
+        <v>1.023034090297626</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042394942795963</v>
+        <v>1.048071832849703</v>
       </c>
       <c r="J22">
-        <v>1.04225450539122</v>
+        <v>1.027867425096209</v>
       </c>
       <c r="K22">
-        <v>1.049381797113909</v>
+        <v>1.036738913955909</v>
       </c>
       <c r="L22">
-        <v>1.048349256923242</v>
+        <v>1.029801169464948</v>
       </c>
       <c r="M22">
-        <v>1.059426372028915</v>
+        <v>1.03816264330594</v>
       </c>
       <c r="N22">
-        <v>1.018011394352046</v>
+        <v>1.013091951815482</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035722369361239</v>
+        <v>0.9985989303206144</v>
       </c>
       <c r="D23">
-        <v>1.045954110001404</v>
+        <v>1.02282448443623</v>
       </c>
       <c r="E23">
-        <v>1.04494108623781</v>
+        <v>1.015819693160492</v>
       </c>
       <c r="F23">
-        <v>1.056091845254702</v>
+        <v>1.024493519624383</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042476341757827</v>
+        <v>1.048631156139356</v>
       </c>
       <c r="J23">
-        <v>1.042424889316767</v>
+        <v>1.028739984853711</v>
       </c>
       <c r="K23">
-        <v>1.049557623007565</v>
+        <v>1.037654283771762</v>
       </c>
       <c r="L23">
-        <v>1.048548361096021</v>
+        <v>1.03077843127565</v>
       </c>
       <c r="M23">
-        <v>1.059658151145574</v>
+        <v>1.039292935045393</v>
       </c>
       <c r="N23">
-        <v>1.018068236067112</v>
+        <v>1.013383824073058</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036912210169252</v>
+        <v>1.004786837203238</v>
       </c>
       <c r="D24">
-        <v>1.046917125043389</v>
+        <v>1.027621022297416</v>
       </c>
       <c r="E24">
-        <v>1.045997387750313</v>
+        <v>1.02088006683241</v>
       </c>
       <c r="F24">
-        <v>1.057274164453891</v>
+        <v>1.030138727788535</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042794523075975</v>
+        <v>1.050769168937056</v>
       </c>
       <c r="J24">
-        <v>1.043095633470554</v>
+        <v>1.032101858810322</v>
       </c>
       <c r="K24">
-        <v>1.050249526341112</v>
+        <v>1.041179843965502</v>
       </c>
       <c r="L24">
-        <v>1.049332928458734</v>
+        <v>1.034550165535896</v>
       </c>
       <c r="M24">
-        <v>1.060571627344056</v>
+        <v>1.043656468033627</v>
       </c>
       <c r="N24">
-        <v>1.018291952202908</v>
+        <v>1.014508415589888</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038296039561447</v>
+        <v>1.011720261016376</v>
       </c>
       <c r="D25">
-        <v>1.048037190286374</v>
+        <v>1.033011035682264</v>
       </c>
       <c r="E25">
-        <v>1.047227751284656</v>
+        <v>1.026579900319756</v>
       </c>
       <c r="F25">
-        <v>1.058651232218391</v>
+        <v>1.036494407677579</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04315900202086</v>
+        <v>1.053123376172528</v>
       </c>
       <c r="J25">
-        <v>1.043873858888208</v>
+        <v>1.035859528496226</v>
       </c>
       <c r="K25">
-        <v>1.051051751735924</v>
+        <v>1.045117633712267</v>
       </c>
       <c r="L25">
-        <v>1.050244794236454</v>
+        <v>1.038779148376818</v>
       </c>
       <c r="M25">
-        <v>1.061633636818104</v>
+        <v>1.048551429590923</v>
       </c>
       <c r="N25">
-        <v>1.018551410977593</v>
+        <v>1.015765410552488</v>
       </c>
     </row>
   </sheetData>
